--- a/KUIS_TIMER/soal.xlsx
+++ b/KUIS_TIMER/soal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Website\KUIS_TIMER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEFA932-69C3-411C-9C81-8629D460E386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5888E369-016E-4AF6-86AF-42403CBBB992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="185">
   <si>
     <t>Soal</t>
   </si>
@@ -58,298 +58,523 @@
     <t>C</t>
   </si>
   <si>
-    <t>gambar1.jpg</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>Satuan daya dalam sistem internasional (SI) adalah</t>
-  </si>
-  <si>
-    <t>joule</t>
-  </si>
-  <si>
-    <t>volt</t>
-  </si>
-  <si>
-    <t>watt</t>
-  </si>
-  <si>
-    <t>newton</t>
-  </si>
-  <si>
-    <t>Alat untuk mengukur kuat arus listrik adalah</t>
-  </si>
-  <si>
-    <t>voltmeter</t>
-  </si>
-  <si>
-    <t>ohmmeter</t>
-  </si>
-  <si>
-    <t>amperemeter</t>
-  </si>
-  <si>
-    <t>wattmeter</t>
-  </si>
-  <si>
-    <t>Gaya yang menyebabkan benda bergerak melingkar disebut</t>
-  </si>
-  <si>
-    <t>gaya gravitasi</t>
-  </si>
-  <si>
-    <t>gaya gesek</t>
-  </si>
-  <si>
-    <t>gaya sentripetal</t>
-  </si>
-  <si>
-    <t>gaya normal</t>
-  </si>
-  <si>
-    <t>Energi yang dimiliki benda karena geraknya disebut</t>
-  </si>
-  <si>
-    <t>energi potensial</t>
-  </si>
-  <si>
-    <t>energi kinetik</t>
-  </si>
-  <si>
-    <t>energi listrik</t>
-  </si>
-  <si>
-    <t>energi panas</t>
-  </si>
-  <si>
-    <t>Hukum I Newton menyatakan bahwa</t>
-  </si>
-  <si>
-    <t>gaya = massa × percepatan</t>
-  </si>
-  <si>
-    <t>aksi = reaksi</t>
-  </si>
-  <si>
-    <t>setiap benda akan tetap diam atau bergerak lurus beraturan jika tidak ada gaya yang bekerja padanya</t>
-  </si>
-  <si>
-    <t>percepatan sebanding dengan gaya dan berbanding terbalik dengan massa</t>
-  </si>
-  <si>
-    <t>Perpindahan panas secara langsung melalui zat perantara tanpa perpindahan partikel disebut</t>
-  </si>
-  <si>
-    <t>konduksi</t>
-  </si>
-  <si>
-    <t>konveksi</t>
-  </si>
-  <si>
-    <t>radiansi</t>
-  </si>
-  <si>
-    <t>evaporasi</t>
-  </si>
-  <si>
-    <t>Besaran pokok yang termasuk dalam sistem SI adalah</t>
-  </si>
-  <si>
-    <t>massa</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>kecepatan</t>
-  </si>
-  <si>
-    <t>berat</t>
-  </si>
-  <si>
-    <t>Alat optik yang digunakan pada mata rabun dekat adalah</t>
-  </si>
-  <si>
-    <t>lensa cembung</t>
-  </si>
-  <si>
-    <t>lensa cekung</t>
-  </si>
-  <si>
-    <t>cermin cembung</t>
-  </si>
-  <si>
-    <t>cermin datar</t>
-  </si>
-  <si>
-    <t>Gaya gesek yang terjadi saat benda belum bergerak disebut</t>
-  </si>
-  <si>
-    <t>gaya gesek dinamis</t>
-  </si>
-  <si>
-    <t>gaya gesek statis</t>
-  </si>
-  <si>
-    <t>Suatu benda dikatakan melakukan usaha jika</t>
-  </si>
-  <si>
-    <t>ada gaya dan benda berpindah</t>
-  </si>
-  <si>
-    <t>ada gaya tetapi benda diam</t>
-  </si>
-  <si>
-    <t>benda bergerak tanpa gaya</t>
-  </si>
-  <si>
-    <t>benda diam selamanya</t>
-  </si>
-  <si>
-    <t>Rumus untuk menghitung daya adalah</t>
-  </si>
-  <si>
-    <t>energi × waktu</t>
-  </si>
-  <si>
-    <t>energi / waktu</t>
-  </si>
-  <si>
-    <t>tegangan × waktu</t>
-  </si>
-  <si>
-    <t>tegangan + waktu</t>
-  </si>
-  <si>
-    <t>Hukum Ohm menyatakan bahwa besar arus listrik berbanding lurus dengan</t>
-  </si>
-  <si>
-    <t>hambatan</t>
-  </si>
-  <si>
-    <t>tegangan</t>
-  </si>
-  <si>
-    <t>energi</t>
-  </si>
-  <si>
-    <t>Satuan hambatan listrik adalah</t>
-  </si>
-  <si>
-    <t>ampere</t>
-  </si>
-  <si>
-    <t>ohm</t>
-  </si>
-  <si>
-    <t>Katrol tetap berfungsi untuk</t>
-  </si>
-  <si>
-    <t>menambah gaya</t>
-  </si>
-  <si>
-    <t>memperbesar percepatan</t>
-  </si>
-  <si>
-    <t>mengubah arah gaya</t>
-  </si>
-  <si>
-    <t>mengurangi gaya</t>
-  </si>
-  <si>
-    <t>Benda yang memiliki massa 5 kg berada di bumi dengan percepatan gravitasi 10 m/s². Berat benda tersebut adalah</t>
-  </si>
-  <si>
-    <t>50 N</t>
-  </si>
-  <si>
-    <t>5 N</t>
-  </si>
-  <si>
-    <t>500 N</t>
-  </si>
-  <si>
-    <t>100 N</t>
-  </si>
-  <si>
-    <t>Perpindahan panas melalui zat perantara dengan disertai perpindahan partikel zat disebut</t>
-  </si>
-  <si>
-    <t>radiasi</t>
-  </si>
-  <si>
-    <t>kondensasi</t>
-  </si>
-  <si>
-    <t>Energi panas matahari sampai ke bumi melalui cara</t>
-  </si>
-  <si>
-    <t>konduktivitas termal</t>
-  </si>
-  <si>
-    <t>Cermin yang digunakan pada kaca spion kendaraan adalah</t>
-  </si>
-  <si>
-    <t>cermin cekung</t>
-  </si>
-  <si>
-    <t>cermin bolak-balik</t>
-  </si>
-  <si>
-    <t>Alat untuk mengukur suhu adalah</t>
-  </si>
-  <si>
-    <t>termometer</t>
-  </si>
-  <si>
-    <t>higrometer</t>
-  </si>
-  <si>
-    <t>Salah satu bentuk energi yang dapat digunakan untuk menghasilkan listrik adalah</t>
-  </si>
-  <si>
-    <t>energi cahaya</t>
-  </si>
-  <si>
-    <t>energi suara</t>
-  </si>
-  <si>
-    <t>energi panas bumi</t>
-  </si>
-  <si>
-    <t>Satuan tekanan dalam SI adalah</t>
-  </si>
-  <si>
-    <t>pascal</t>
-  </si>
-  <si>
-    <t>Siapa Ilmuan diatas?</t>
-  </si>
-  <si>
-    <t>Tesla</t>
-  </si>
-  <si>
     <t>Newton</t>
   </si>
   <si>
-    <t>Einstein</t>
-  </si>
-  <si>
-    <t>Currie</t>
-  </si>
-  <si>
     <t>Mata Pelajaran</t>
   </si>
   <si>
     <t>IPA</t>
   </si>
   <si>
-    <t>IPS</t>
-  </si>
-  <si>
-    <t>MATEMATIKA</t>
+    <t>Energi yang dimiliki benda karena geraknya disebut...</t>
+  </si>
+  <si>
+    <t>Energi potensial</t>
+  </si>
+  <si>
+    <t>Energi kimia</t>
+  </si>
+  <si>
+    <t>Energi panas</t>
+  </si>
+  <si>
+    <t>Energi kinetik</t>
+  </si>
+  <si>
+    <t>Gaya dapat menyebabkan benda...</t>
+  </si>
+  <si>
+    <t>Tetap diam</t>
+  </si>
+  <si>
+    <t>Berubah warna</t>
+  </si>
+  <si>
+    <t>Berubah bentuk</t>
+  </si>
+  <si>
+    <t>Tetap berada di tempat</t>
+  </si>
+  <si>
+    <t>Satuan dari daya dalam sistem internasional adalah...</t>
+  </si>
+  <si>
+    <t>Joule</t>
+  </si>
+  <si>
+    <t>Watt</t>
+  </si>
+  <si>
+    <t>Pascal</t>
+  </si>
+  <si>
+    <t>Tekanan dipengaruhi oleh...</t>
+  </si>
+  <si>
+    <t>Waktu dan massa</t>
+  </si>
+  <si>
+    <t>Gaya dan luas bidang tekan</t>
+  </si>
+  <si>
+    <t>Gaya dan kecepatan</t>
+  </si>
+  <si>
+    <t>Volume dan massa</t>
+  </si>
+  <si>
+    <t>Berikut ini yang bukan ciri-ciri makhluk hidup adalah...</t>
+  </si>
+  <si>
+    <t>Bernapas</t>
+  </si>
+  <si>
+    <t>Tumbuh</t>
+  </si>
+  <si>
+    <t>Bergerak</t>
+  </si>
+  <si>
+    <t>Menyala</t>
+  </si>
+  <si>
+    <t>Contoh getaran dapat ditemukan pada...</t>
+  </si>
+  <si>
+    <t>Roda sepeda</t>
+  </si>
+  <si>
+    <t>Kipas angin berputar</t>
+  </si>
+  <si>
+    <t>Senar gitar yang dipetik</t>
+  </si>
+  <si>
+    <t>Benda jatuh</t>
+  </si>
+  <si>
+    <t>Gelombang yang membutuhkan medium untuk merambat adalah...</t>
+  </si>
+  <si>
+    <t>Gelombang cahaya</t>
+  </si>
+  <si>
+    <t>Gelombang bunyi</t>
+  </si>
+  <si>
+    <t>Gelombang elektromagnetik</t>
+  </si>
+  <si>
+    <t>Gelombang radio</t>
+  </si>
+  <si>
+    <t>Energi tidak dapat diciptakan atau dimusnahkan, hanya dapat...</t>
+  </si>
+  <si>
+    <t>Hilang</t>
+  </si>
+  <si>
+    <t>Ditambahkan</t>
+  </si>
+  <si>
+    <t>Diubah menjadi gaya</t>
+  </si>
+  <si>
+    <t>Gaya gesek terjadi karena adanya...</t>
+  </si>
+  <si>
+    <t>Suhu</t>
+  </si>
+  <si>
+    <t>Gaya listrik</t>
+  </si>
+  <si>
+    <t>Kontak permukaan</t>
+  </si>
+  <si>
+    <t>Gerakan rotasi</t>
+  </si>
+  <si>
+    <t>Satuan tekanan adalah...</t>
+  </si>
+  <si>
+    <t>Tumbuhan membuat makanan melalui proses...</t>
+  </si>
+  <si>
+    <t>Respirasi</t>
+  </si>
+  <si>
+    <t>Ekskresi</t>
+  </si>
+  <si>
+    <t>Fotosintesis</t>
+  </si>
+  <si>
+    <t>Transportasi</t>
+  </si>
+  <si>
+    <t>Benda yang dikenai gaya bisa mengalami...</t>
+  </si>
+  <si>
+    <t>Perubahan bentuk</t>
+  </si>
+  <si>
+    <t>Penurunan suhu</t>
+  </si>
+  <si>
+    <t>Pertambahan massa</t>
+  </si>
+  <si>
+    <t>Peningkatan warna</t>
+  </si>
+  <si>
+    <t>Contoh energi potensial terdapat pada...</t>
+  </si>
+  <si>
+    <t>Batu yang menggelinding</t>
+  </si>
+  <si>
+    <t>Air terjun yang mengalir</t>
+  </si>
+  <si>
+    <t>Bola di atas meja</t>
+  </si>
+  <si>
+    <t>Kipas angin menyala</t>
+  </si>
+  <si>
+    <t>Daya adalah...</t>
+  </si>
+  <si>
+    <t>Energi yang hilang</t>
+  </si>
+  <si>
+    <t>Usaha per satuan waktu</t>
+  </si>
+  <si>
+    <t>Gaya yang konstan</t>
+  </si>
+  <si>
+    <t>Massa dikali percepatan</t>
+  </si>
+  <si>
+    <t>Semakin kecil luas bidang tekan, maka tekanannya akan...</t>
+  </si>
+  <si>
+    <t>Semakin besar</t>
+  </si>
+  <si>
+    <t>Tetap</t>
+  </si>
+  <si>
+    <t>Semakin kecil</t>
+  </si>
+  <si>
+    <t>Tidak berubah</t>
+  </si>
+  <si>
+    <t>Makhluk hidup berkembang biak untuk...</t>
+  </si>
+  <si>
+    <t>Bertahan hidup</t>
+  </si>
+  <si>
+    <t>Menambah massa</t>
+  </si>
+  <si>
+    <t>Menyesuaikan suhu</t>
+  </si>
+  <si>
+    <t>Menghasilkan energi</t>
+  </si>
+  <si>
+    <t>Gelombang longitudinal merambat dengan arah...</t>
+  </si>
+  <si>
+    <t>Tegak lurus arah rambat</t>
+  </si>
+  <si>
+    <t>Searah dan tegak lurus</t>
+  </si>
+  <si>
+    <t>Sejajar dengan arah rambat</t>
+  </si>
+  <si>
+    <t>Melingkar</t>
+  </si>
+  <si>
+    <t>Energi panas dapat diperoleh dari...</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>Es</t>
+  </si>
+  <si>
+    <t>Matahari</t>
+  </si>
+  <si>
+    <t>Kertas</t>
+  </si>
+  <si>
+    <t>Gaya gravitasi bekerja pada benda yang...</t>
+  </si>
+  <si>
+    <t>Diam</t>
+  </si>
+  <si>
+    <t>Mengambang</t>
+  </si>
+  <si>
+    <t>Berada di ruang hampa</t>
+  </si>
+  <si>
+    <t>Memiliki massa</t>
+  </si>
+  <si>
+    <t>Satuan usaha adalah...</t>
+  </si>
+  <si>
+    <t>Salah satu contoh penerapan tekanan dalam kehidupan adalah...</t>
+  </si>
+  <si>
+    <t>Kaca pembesar</t>
+  </si>
+  <si>
+    <t>Jarum suntik</t>
+  </si>
+  <si>
+    <t>Termometer</t>
+  </si>
+  <si>
+    <t>Jam dinding</t>
+  </si>
+  <si>
+    <t>Makhluk hidup memerlukan makanan untuk...</t>
+  </si>
+  <si>
+    <t>Bertumbuh</t>
+  </si>
+  <si>
+    <t>Meniru</t>
+  </si>
+  <si>
+    <t>Berhenti bergerak</t>
+  </si>
+  <si>
+    <t>Gaya tarik bumi disebut juga...</t>
+  </si>
+  <si>
+    <t>Gaya normal</t>
+  </si>
+  <si>
+    <t>Gaya gesek</t>
+  </si>
+  <si>
+    <t>Gaya gravitasi</t>
+  </si>
+  <si>
+    <t>Energi listrik dapat diubah menjadi energi cahaya pada...</t>
+  </si>
+  <si>
+    <t>Kipas angin</t>
+  </si>
+  <si>
+    <t>Setrika</t>
+  </si>
+  <si>
+    <t>Lampu</t>
+  </si>
+  <si>
+    <t>Kompor listrik</t>
+  </si>
+  <si>
+    <t>Perubahan energi dari listrik menjadi gerak terdapat pada...</t>
+  </si>
+  <si>
+    <t>Televisi</t>
+  </si>
+  <si>
+    <t>Tekanan pada zat padat dipengaruhi oleh...</t>
+  </si>
+  <si>
+    <t>Volume dan suhu</t>
+  </si>
+  <si>
+    <t>Luas permukaan dan gaya tekan</t>
+  </si>
+  <si>
+    <t>Massa dan warna</t>
+  </si>
+  <si>
+    <t>Suhu dan gerakan</t>
+  </si>
+  <si>
+    <t>Ciri-ciri makhluk hidup salah satunya adalah...</t>
+  </si>
+  <si>
+    <t>Berbicara</t>
+  </si>
+  <si>
+    <t>Berdiam diri</t>
+  </si>
+  <si>
+    <t>Bereaksi terhadap rangsang</t>
+  </si>
+  <si>
+    <t>Menyalakan lampu</t>
+  </si>
+  <si>
+    <t>Getaran adalah gerakan...</t>
+  </si>
+  <si>
+    <t>Satu arah</t>
+  </si>
+  <si>
+    <t>Berulang-ulang</t>
+  </si>
+  <si>
+    <t>Lurus</t>
+  </si>
+  <si>
+    <t>Melengkung</t>
+  </si>
+  <si>
+    <t>Gelombang transversal merambat dengan arah...</t>
+  </si>
+  <si>
+    <t>Sejajar arah rambat</t>
+  </si>
+  <si>
+    <t>Melawan arah rambat</t>
+  </si>
+  <si>
+    <t>Alat untuk mengukur tekanan udara adalah...</t>
+  </si>
+  <si>
+    <t>Barometer</t>
+  </si>
+  <si>
+    <t>Amperemeter</t>
+  </si>
+  <si>
+    <t>Volt meter</t>
+  </si>
+  <si>
+    <t>Contoh perubahan energi kimia menjadi energi panas adalah...</t>
+  </si>
+  <si>
+    <t>Memasak dengan kompor gas</t>
+  </si>
+  <si>
+    <t>Menonton TV</t>
+  </si>
+  <si>
+    <t>Memutar kipas</t>
+  </si>
+  <si>
+    <t>Tekanan hidrostatis semakin besar jika...</t>
+  </si>
+  <si>
+    <t>Kedalaman semakin kecil</t>
+  </si>
+  <si>
+    <t>Kedalaman tetap</t>
+  </si>
+  <si>
+    <t>Kedalaman semakin besar</t>
+  </si>
+  <si>
+    <t>Air dibekukan</t>
+  </si>
+  <si>
+    <t>Makhluk hidup peka terhadap rangsang, artinya...</t>
+  </si>
+  <si>
+    <t>Dapat bergerak</t>
+  </si>
+  <si>
+    <t>Dapat berkembang biak</t>
+  </si>
+  <si>
+    <t>Dapat merespon perubahan lingkungan</t>
+  </si>
+  <si>
+    <t>Dapat bernapas dengan baik</t>
+  </si>
+  <si>
+    <t>Energi matahari yang sampai ke bumi berbentuk...</t>
+  </si>
+  <si>
+    <t>Gelombang mekanik</t>
+  </si>
+  <si>
+    <t>Gaya yang arah geraknya berlawanan dengan arah gerakan benda disebut...</t>
+  </si>
+  <si>
+    <t>Gaya dorong</t>
+  </si>
+  <si>
+    <t>Contoh energi mekanik adalah...</t>
+  </si>
+  <si>
+    <t>Batu diam di tanah</t>
+  </si>
+  <si>
+    <t>Bola menggelinding</t>
+  </si>
+  <si>
+    <t>Lampu menyala</t>
+  </si>
+  <si>
+    <t>Setrika panas</t>
+  </si>
+  <si>
+    <t>Satuan untuk mengukur energi adalah...</t>
+  </si>
+  <si>
+    <t>Gelombang yang dapat merambat di ruang hampa adalah...</t>
+  </si>
+  <si>
+    <t>Gelombang air</t>
+  </si>
+  <si>
+    <t>Gelombang getaran</t>
+  </si>
+  <si>
+    <t>Tekanan yang dihasilkan gigi runcing lebih besar karena...</t>
+  </si>
+  <si>
+    <t>Luas bidang tekan kecil</t>
+  </si>
+  <si>
+    <t>Massa besar</t>
+  </si>
+  <si>
+    <t>Gaya kecil</t>
+  </si>
+  <si>
+    <t>Gerakan lambat</t>
+  </si>
+  <si>
+    <t>Makhluk hidup membutuhkan air untuk...</t>
+  </si>
+  <si>
+    <t>Tidur</t>
+  </si>
+  <si>
+    <t>Menyerap cahaya</t>
+  </si>
+  <si>
+    <t>Metabolisme</t>
+  </si>
+  <si>
+    <t>Mendeteksi rangsang</t>
   </si>
 </sst>
 </file>
@@ -1190,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,27 +1458,27 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -1262,24 +1487,24 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -1291,24 +1516,24 @@
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -1320,24 +1545,24 @@
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -1349,27 +1574,27 @@
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -1378,27 +1603,27 @@
         <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -1407,27 +1632,27 @@
         <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>15</v>
@@ -1435,31 +1660,28 @@
       <c r="H8">
         <v>8</v>
       </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
       <c r="J8" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -1468,27 +1690,27 @@
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -1497,27 +1719,27 @@
         <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>15</v>
@@ -1526,27 +1748,27 @@
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>15</v>
@@ -1555,27 +1777,27 @@
         <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>15</v>
@@ -1584,27 +1806,27 @@
         <v>8</v>
       </c>
       <c r="J13" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -1613,27 +1835,27 @@
         <v>8</v>
       </c>
       <c r="J14" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G15">
         <v>15</v>
@@ -1642,27 +1864,27 @@
         <v>8</v>
       </c>
       <c r="J15" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>15</v>
@@ -1671,24 +1893,24 @@
         <v>8</v>
       </c>
       <c r="J16" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1700,53 +1922,53 @@
         <v>8</v>
       </c>
       <c r="J17" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G18">
         <v>15</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J18" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1755,56 +1977,56 @@
         <v>15</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>15</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J20" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1816,27 +2038,27 @@
         <v>8</v>
       </c>
       <c r="J21" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G22">
         <v>15</v>
@@ -1845,36 +2067,558 @@
         <v>8</v>
       </c>
       <c r="J22" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>15</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="J24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" t="s">
         <v>10</v>
       </c>
-      <c r="G23">
-        <v>15</v>
-      </c>
-      <c r="H23">
-        <v>8</v>
-      </c>
-      <c r="J23" t="s">
-        <v>107</v>
+      <c r="G26">
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>15</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>15</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>15</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="J30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="J31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>15</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34">
+        <v>15</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="J34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36">
+        <v>15</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="J36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37">
+        <v>15</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="J38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39">
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="J39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>15</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="J40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>15</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="J41" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
